--- a/QA/Installation/Installation.xlsx
+++ b/QA/Installation/Installation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA4AE9E-2141-4101-8608-4656CEEBAF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886BC22-1D1A-44BC-9CDB-0FCFE627B896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -51,13 +51,227 @@
   </si>
   <si>
     <t>VP_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation the notepade++ application </t>
+  </si>
+  <si>
+    <t>The installation of the application was successful, after the installation the installed application was opened</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>TC_6</t>
+  </si>
+  <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>Check on creating application shortcut on desktop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Go to the webpage https://notepad-plus-plus.org/download/v7.5.html
+2- Download the application
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open downloaded application
+2- Confirm permission to make changes to the files on the work computer
+3- Select installation language and click ok
+4- In the open window "Welcome to Notepade++ v7.5 Setup" click next
+5- Read and confirm the user agreement by clicking on "I agree"
+6- Select the directory to install the program and click the "next" button (C:\)
+7- Select the necessary program components to be installed (we leave the standard items) and click the button "next"
+8- Select "create an icon on the desktop" and click the "Install" button
+9- Press the "finish" button
+10 - Pay attention to whether the application has opened</t>
+    </r>
+  </si>
+  <si>
+    <t>Envirement</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1- Install Notepade++ application
+Steps:
+1- See if the application shortcut (Notepade++) was created on the desktop of the desktop computer
+2- open the application by double clicking on the application shortcut (Notepade++)
+3- See if the application has opened</t>
+  </si>
+  <si>
+    <t>The application is opened using a shortcut on the desktop created during the installation process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS: Windows 10 Enterprise
+Processor: Intel® Core™ i3-2100 CPU @ 3.10GHz
+RAM: 16GB
+System type: 64-bit </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Ivan Shmidt</t>
+  </si>
+  <si>
+    <t>Valerii Vedmid</t>
+  </si>
+  <si>
+    <t>Checking the opening of files created on an older version of the application</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Install two different versions of the application in different directories of the working computer (v7.4 and v7.5)
+2- create and save file in app version 7.4
+Steps:
+1- Application version 7.5 open the saved file
+2- See if the saved file is open</t>
+  </si>
+  <si>
+    <t>The saved file has opened correctly and the information has been displayed in the workspace of the application.</t>
+  </si>
+  <si>
+    <t>Check for opening files created by a newer version of the application</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Install two different versions of the application in different directories of the working computer (v7.4 and v7.5)
+2- create and save file in app version 7.5
+Steps:
+1- Application version 7.4 open the saved file
+2- See if the saved file is open</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Check for update of the application to the latest version</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1- Install Notepade++ application v 7.4
+Steps:
+1- Open application
+2- Find a menu item with the name "?" and click on it
+3- in the drop-down list, select the item "Update Notepade++"
+4- Confirm application update</t>
+  </si>
+  <si>
+    <t>The application has been successfully updated to the latest version and re-opened</t>
+  </si>
+  <si>
+    <t>Check for application update</t>
+  </si>
+  <si>
+    <t>Precondition: 
+1- Install the "Notepade++" application of the current version
+Steps:
+1- Open application
+2- Find a menu item with the name "?" and click on it
+3- in the drop-down list, select the item "Update Notepade++"
+4- Look at the text of the message that was displayed on the screen</t>
+  </si>
+  <si>
+    <t>When you try to update the application, a message appears with the text "Update is not available, you are using the latest version of the application"</t>
+  </si>
+  <si>
+    <t>Check to remove the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition: 
+1- Install the "Notepade++" application of the current version
+Steps:
+1- Go to the directory with the installed program, and open the file with the name "uninstall.exe"
+2- Confirm the uninstall of the program without saving the user settings and wait until the program is completely deleted (the deletion status will be shown on the progress bar)
+</t>
+  </si>
+  <si>
+    <t>The application has been deleted and a message has appeared that the program and all its components have been successfully removed from the work computer.</t>
+  </si>
+  <si>
+    <t>Check for deletion of all application data</t>
+  </si>
+  <si>
+    <t>Precondition:
+1- Install the "Notepade++" application of the current version
+2- Remove application
+Steps:
+1- Go to the desktop and check the availability of the program shortcut
+2- Open the start menu and check the availability of the shortcut and the files
+3- Open the temporary files storage directory and see if the application data is available
+4- Open the directory in which the program was installed and check the presence of files and folders of this application</t>
+  </si>
+  <si>
+    <t>All temporary files, shortcuts and application data deleted successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +293,23 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -123,13 +354,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -412,23 +661,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -438,35 +688,268 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" ht="345.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -477,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E49CFA-542C-4615-822A-56ADB1E7B573}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/QA/Installation/Installation.xlsx
+++ b/QA/Installation/Installation.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886BC22-1D1A-44BC-9CDB-0FCFE627B896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="VLS Player" sheetId="2" r:id="rId2"/>
+    <sheet name="VLC Player" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -266,17 +261,41 @@
   <si>
     <t>All temporary files, shortcuts and application data deleted successfully</t>
   </si>
+  <si>
+    <t>Installing VLC player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition: 
+1- Download the installer from the official site and open the downloaded installer
+Steps:
+1- Select program installation language and press the button "OK"
+2- Click "Next" to continue the installation.
+3- Accept the license agreement and click "Next"
+4- Select the components needed to install the program (we leave the default settings for the selection) and click the "Next" button
+5- Select the folder to install the application (leave the default path) and click the "Install" button
+6- We are waiting for the end of the installation process and click "Finish"
+7- Open the program and see if it starts
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,20 +371,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -380,19 +396,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -441,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -476,7 +495,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -653,17 +672,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -679,16 +698,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -718,234 +737,234 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="345.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -957,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E49CFA-542C-4615-822A-56ADB1E7B573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,15 +994,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1009,9 +1028,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="409.6" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/QA/Installation/Installation.xlsx
+++ b/QA/Installation/Installation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AAAFB9-5D26-47F2-A9D6-4591A9AB94EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="VLC Player" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">Installation the notepade++ application </t>
   </si>
   <si>
-    <t>The installation of the application was successful, after the installation the installed application was opened</t>
-  </si>
-  <si>
     <t>TC_1</t>
   </si>
   <si>
@@ -67,18 +64,6 @@
   </si>
   <si>
     <t>TC_5</t>
-  </si>
-  <si>
-    <t>TC_6</t>
-  </si>
-  <si>
-    <t>TC_7</t>
-  </si>
-  <si>
-    <t>TC_8</t>
-  </si>
-  <si>
-    <t>Check on creating application shortcut on desktop</t>
   </si>
   <si>
     <r>
@@ -145,17 +130,6 @@
     <t>Envirement</t>
   </si>
   <si>
-    <t>Precondition: 
-1- Install Notepade++ application
-Steps:
-1- See if the application shortcut (Notepade++) was created on the desktop of the desktop computer
-2- open the application by double clicking on the application shortcut (Notepade++)
-3- See if the application has opened</t>
-  </si>
-  <si>
-    <t>The application is opened using a shortcut on the desktop created during the installation process</t>
-  </si>
-  <si>
     <t xml:space="preserve">OS: Windows 10 Enterprise
 Processor: Intel® Core™ i3-2100 CPU @ 3.10GHz
 RAM: 16GB
@@ -165,9 +139,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Ivan Shmidt</t>
   </si>
   <si>
@@ -177,86 +148,19 @@
     <t>Checking the opening of files created on an older version of the application</t>
   </si>
   <si>
-    <t>Precondition:
-1- Install two different versions of the application in different directories of the working computer (v7.4 and v7.5)
-2- create and save file in app version 7.4
-Steps:
-1- Application version 7.5 open the saved file
-2- See if the saved file is open</t>
-  </si>
-  <si>
     <t>The saved file has opened correctly and the information has been displayed in the workspace of the application.</t>
   </si>
   <si>
     <t>Check for opening files created by a newer version of the application</t>
   </si>
   <si>
-    <t>Precondition:
-1- Install two different versions of the application in different directories of the working computer (v7.4 and v7.5)
-2- create and save file in app version 7.5
-Steps:
-1- Application version 7.4 open the saved file
-2- See if the saved file is open</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Check for update of the application to the latest version</t>
-  </si>
-  <si>
-    <t>Precondition: 
-1- Install Notepade++ application v 7.4
-Steps:
-1- Open application
-2- Find a menu item with the name "?" and click on it
-3- in the drop-down list, select the item "Update Notepade++"
-4- Confirm application update</t>
-  </si>
-  <si>
-    <t>The application has been successfully updated to the latest version and re-opened</t>
-  </si>
-  <si>
-    <t>Check for application update</t>
-  </si>
-  <si>
-    <t>Precondition: 
-1- Install the "Notepade++" application of the current version
-Steps:
-1- Open application
-2- Find a menu item with the name "?" and click on it
-3- in the drop-down list, select the item "Update Notepade++"
-4- Look at the text of the message that was displayed on the screen</t>
-  </si>
-  <si>
-    <t>When you try to update the application, a message appears with the text "Update is not available, you are using the latest version of the application"</t>
-  </si>
-  <si>
     <t>Check to remove the program</t>
   </si>
   <si>
-    <t xml:space="preserve">Precondition: 
-1- Install the "Notepade++" application of the current version
-Steps:
-1- Go to the directory with the installed program, and open the file with the name "uninstall.exe"
-2- Confirm the uninstall of the program without saving the user settings and wait until the program is completely deleted (the deletion status will be shown on the progress bar)
-</t>
-  </si>
-  <si>
-    <t>The application has been deleted and a message has appeared that the program and all its components have been successfully removed from the work computer.</t>
-  </si>
-  <si>
     <t>Check for deletion of all application data</t>
-  </si>
-  <si>
-    <t>Precondition:
-1- Install the "Notepade++" application of the current version
-2- Remove application
-Steps:
-1- Go to the desktop and check the availability of the program shortcut
-2- Open the start menu and check the availability of the shortcut and the files
-3- Open the temporary files storage directory and see if the application data is available
-4- Open the directory in which the program was installed and check the presence of files and folders of this application</t>
   </si>
   <si>
     <t>All temporary files, shortcuts and application data deleted successfully</t>
@@ -277,11 +181,200 @@
 7- Open the program and see if it starts
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">Precondition: 
+1- Install the "Notepade++" application of the current version
+Steps:
+1- Go to the directory with the installed program, and open the file with the name "uninstall.exe"
+2- Confirm the uninstall of the program without saving the user settings and wait until the program is completely deleted (the deletion status will be shown on the progress bar)
+3- Repeat the installation process
+4- Remove program through "Apps &amp; Features"
+</t>
+  </si>
+  <si>
+    <t>1- The application has opened and the system confirmation window appears.
+2- After confirming the changes, the language selection window appears.
+3- After pressing the button, the installation continued and a message appeared with a description of the program.
+4- After clicking on the button a window appears with the privacy policy
+5- After agreeing to the privacy policy, the window for selecting the directory for installing the program has opened.
+6- The required directory was selected and the installation of the program continued.
+7- A standard set of components has been marked.
+8- Creating an application shortcut was selected and the program installation process began.
+9- After pressing the button, the program has opened
+10- The program language corresponds to the one selected during the installation, files are created, edited and opened, a shortcut to the program is created on the desktop, the program is in the selected directory during the installation</t>
+  </si>
+  <si>
+    <t>1- The file was created, the changes were made and the save was successful.
+2- The update of the application to the latest version was successful.
+3- In the updated version, the saved file was opened successfully, changes were made and the file was saved
+4- After the update, the settings of the program and the files opened in the workspace are saved</t>
+  </si>
+  <si>
+    <t>The application has been deleted and a message has appeared that the program and all its components have been successfully removed from the work computer.
+The application has disappeared from the list available in the "Apps &amp; Features" section</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Install two different versions of the application in different directories of the working computer (v7.4 and v7.5)
+2- create and save file in app version 7.4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Application version 7.5 open the saved file
+2- See if the saved file is open</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Install the application of the working computer (v7.4 )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Create a file with the extension ".txt" and fill it with data, then save the file.
+2- Update the application to the latest version by clicking on the "?" and selecting "Update Notepade ++"
+3- Open a previously saved file and check for the possibility of changing and saving data.
+4- Pay attention to
+so that the added files to the application environment remain there after the update and are correctly displayed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Install the "Notepade++" application of the current version
+2- Remove application
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Go to the desktop and check the availability of the program shortcut
+2- Open the start menu and check the availability of the shortcut and the files
+3- Open the temporary files storage directory and see if the application data is available
+4- Open the directory in which the program was installed and check the presence of files and folders of this application</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,16 +495,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -672,18 +771,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -736,205 +835,140 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="345.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
@@ -976,10 +1010,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1033,10 +1067,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/QA/Installation/Installation.xlsx
+++ b/QA/Installation/Installation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AAAFB9-5D26-47F2-A9D6-4591A9AB94EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B13E1D-E8C5-48A8-9BDB-8262BD0A6206}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -169,29 +169,6 @@
     <t>Installing VLC player</t>
   </si>
   <si>
-    <t xml:space="preserve">Precondition: 
-1- Download the installer from the official site and open the downloaded installer
-Steps:
-1- Select program installation language and press the button "OK"
-2- Click "Next" to continue the installation.
-3- Accept the license agreement and click "Next"
-4- Select the components needed to install the program (we leave the default settings for the selection) and click the "Next" button
-5- Select the folder to install the application (leave the default path) and click the "Install" button
-6- We are waiting for the end of the installation process and click "Finish"
-7- Open the program and see if it starts
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precondition: 
-1- Install the "Notepade++" application of the current version
-Steps:
-1- Go to the directory with the installed program, and open the file with the name "uninstall.exe"
-2- Confirm the uninstall of the program without saving the user settings and wait until the program is completely deleted (the deletion status will be shown on the progress bar)
-3- Repeat the installation process
-4- Remove program through "Apps &amp; Features"
-</t>
-  </si>
-  <si>
     <t>1- The application has opened and the system confirmation window appears.
 2- After confirming the changes, the language selection window appears.
 3- After pressing the button, the installation continued and a message appeared with a description of the program.
@@ -369,6 +346,269 @@
 3- Open the temporary files storage directory and see if the application data is available
 4- Open the directory in which the program was installed and check the presence of files and folders of this application</t>
     </r>
+  </si>
+  <si>
+    <t>1- The installation language was selected and a window appeared asking you to proceed with the installation.
+2- Button was pressed and a window with a user agreement was opened
+3- Confirm the user agreement and a window appears with settings for the components to be installed.
+4- After clicking on the button, the window for selecting the directory for installing software and components opens.
+5- The selected directory was available for installation and the installation process began.
+6- The application was installed and after clicking on the button the installed application was opened.
+7- The language of the application corresponds to the one selected during the installation, a shortcut to the application on the work table has been created, the directory of the installed application corresponds to the one selected during the installation.</t>
+  </si>
+  <si>
+    <t>VP_2</t>
+  </si>
+  <si>
+    <t>VP_3</t>
+  </si>
+  <si>
+    <t>Installing the application without specifying the installation directory</t>
+  </si>
+  <si>
+    <t>1- The installation language was selected and a window appeared asking you to proceed with the installation.
+2- Button was pressed and a window with a user agreement was opened
+3- Confirm the user agreement and a window appears with settings for the components to be installed.
+4- After clicking on the button, the window for selecting the directory for installing software and components opens.
+5- After clicking on the "Install" button, a warning appears that the installation directory of the application is not selected, you must select a directory to continue the installation process</t>
+  </si>
+  <si>
+    <t>Higt</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Association of ".mp3" files with the application</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Precondition: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Download the installer from the official site and open the downloaded installer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Select program installation language and press the button "OK"
+2- Click "Next" to continue the installation.
+3- Accept the license agreement and click "Next"
+4- Select the components needed to install the program (we leave the default settings for the selection) and click the "Next" button
+5- Clear the input field for the installation path of the program and click on the "Install" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Precondition: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Download the installer from the official site and open the downloaded installer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Select program installation language and press the button "OK"
+2- Click "Next" to continue the installation.
+3- Accept the license agreement and click "Next"
+4- Select the components needed to install the program (we leave the default settings for the selection) and click the "Next" button
+5- Select the folder to install the application (leave the default path) and click the "Install" button
+6- We are waiting for the end of the installation process and click "Finish"
+7- Open the program and see if it starts
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Precondition: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Install the "Notepade++" application of the current version
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Go to the directory with the installed program, and open the file with the name "uninstall.exe"
+2- Confirm the uninstall of the program without saving the user settings and wait until the program is completely deleted (the deletion status will be shown on the progress bar)
+3- Repeat the installation process
+4- Remove program through "Apps &amp; Features"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The application was installed; during the installation, the association of the ".mp3" format files with the application was selected
+2- Created folder with audio file format ".mp3"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1- Open the folder with the audio file and double-click to open the file
+2- Check if the file is playing, and if the navigation buttons "Play, Stop, Pause, Next"</t>
+    </r>
+  </si>
+  <si>
+    <t>1- The file was opened in the necessary application for us (VLC Player), the parameters about the association of the application to the files are set correctly
+2- Navigation buttons work correctly and perform their functions.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,11 +732,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,16 +1043,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -849,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
@@ -871,8 +1117,8 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>35</v>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -897,11 +1143,11 @@
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>36</v>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>25</v>
@@ -923,11 +1169,11 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6" t="s">
@@ -947,8 +1193,8 @@
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>37</v>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>28</v>
@@ -1011,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,22 +1270,23 @@
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,27 +1303,98 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>